--- a/share/config/cfg_item.xlsx
+++ b/share/config/cfg_item.xlsx
@@ -66,8 +66,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-MM-dd HH:mm:ss"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -80,16 +83,6 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -139,37 +132,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -192,73 +176,81 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="3">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="C1" t="s" s="9">
+      <c r="C1" t="s" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="9">
+      <c r="C2" t="s" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" t="s" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="3">
+      <c r="A4" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="C4" t="s" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="1">
+      <c r="A5" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="1">
+      <c r="B5" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="1">
+      <c r="C5" t="s" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="1">
+      <c r="A6" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B6" t="s" s="1">
+      <c r="B6" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="C6" t="s" s="1">
+      <c r="C6" t="s" s="4">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:C4"/>
+  <dataValidations count="2">
+    <dataValidation type="list" sqref="A2:C2" allowBlank="true" errorStyle="stop" showErrorMessage="true">
+      <formula1>"common,server,client"</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="A3:C3" allowBlank="true" errorStyle="stop" showErrorMessage="true">
+      <formula1>"int,string,float,double,long,bool,json,datetime,date,int!"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/share/config/cfg_item.xlsx
+++ b/share/config/cfg_item.xlsx
@@ -248,7 +248,7 @@
       <formula1>"common,server,client"</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="A3:C3" allowBlank="true" errorStyle="stop" showErrorMessage="true">
-      <formula1>"int,string,float,double,long,bool,json,datetime,date,int!"</formula1>
+      <formula1>"int,string,double,long,bool,json,datetime,date,int!"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
